--- a/設計書/単体テスト仕様書/単体テスト仕様書.xlsx
+++ b/設計書/単体テスト仕様書/単体テスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuzek\Desktop\仕事関係\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024Javakensyu\oshirase\設計書\単体テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10446E9C-3A7F-4C5C-B80F-067CC1CA83FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C49C4-2EED-4D5A-AD8B-151FF39CEF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{888B3B3F-0B2E-4D62-B45D-44CAE6DCACCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{888B3B3F-0B2E-4D62-B45D-44CAE6DCACCB}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="136">
   <si>
     <t>単体テスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -2219,11 +2219,48 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードが初期表示のため、テスト対象外</t>
+    <rPh sb="5" eb="9">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>レビュー日</t>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー者</t>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="yyyy\/m\/d"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2286,7 +2323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2305,8 +2342,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2436,13 +2479,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2460,36 +2521,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2521,6 +2552,69 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2532,42 +2626,6 @@
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2701,13 +2759,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2720,6 +2771,49 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2736,16 +2830,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{886BA525-DE08-4890-89D7-2047C4C53183}" name="テーブル2" displayName="テーブル2" ref="A1:G62" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{886BA525-DE08-4890-89D7-2047C4C53183}" name="テーブル2" displayName="テーブル2" ref="A1:G62" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:G62" xr:uid="{886BA525-DE08-4890-89D7-2047C4C53183}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{58AE1D63-75CF-43B9-9670-17759F8347AE}" name="テストケースID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{17EC740A-A4BA-4B86-85D5-6ECC2FF132B6}" name="お知らせタイトル" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{90C06417-DDCF-4290-BCFA-B03C1DC4D5C9}" name="お知らせ区分" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DCC29F3C-F2BE-46DF-B5B7-5E74265E4B9B}" name="掲載日" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C5CD40E9-B313-40E9-8D8D-AB0AA4CA5731}" name="適用開始年月日" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{90380917-EEF1-4069-81C7-2D8721B8B640}" name="適用終了年月日" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{01170C38-C841-42DF-A6F4-C2DF64415AFF}" name="お知らせ内容（お知らせ登録・変更画面のみ）" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{58AE1D63-75CF-43B9-9670-17759F8347AE}" name="テストケースID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{17EC740A-A4BA-4B86-85D5-6ECC2FF132B6}" name="お知らせタイトル" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{90C06417-DDCF-4290-BCFA-B03C1DC4D5C9}" name="お知らせ区分" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{DCC29F3C-F2BE-46DF-B5B7-5E74265E4B9B}" name="掲載日" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C5CD40E9-B313-40E9-8D8D-AB0AA4CA5731}" name="適用開始年月日" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{90380917-EEF1-4069-81C7-2D8721B8B640}" name="適用終了年月日" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{01170C38-C841-42DF-A6F4-C2DF64415AFF}" name="お知らせ内容（お知らせ登録・変更画面のみ）" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3048,107 +3142,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141C2145-55F3-4AAF-9B96-8F539AF0C424}">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M46" sqref="M46:O46"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7:AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="6" width="11.19921875" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" customWidth="1"/>
-    <col min="18" max="18" width="10.796875" customWidth="1"/>
+    <col min="4" max="6" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="18" max="18" width="10.75" customWidth="1"/>
+    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="30"/>
+    </row>
+    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19">
         <v>20240906</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19">
         <v>20240906</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="T2" s="24"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="33"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3158,42 +3268,56 @@
       <c r="C3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="9" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="9" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23"/>
       <c r="S3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V3" s="36"/>
+      <c r="W3" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA3" s="27"/>
+    </row>
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3204,38 +3328,48 @@
       <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="3"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="35">
+        <v>45554</v>
+      </c>
       <c r="T4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+    </row>
+    <row r="5" spans="1:27" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A69" si="0">ROW()-3</f>
         <v>2</v>
@@ -3246,38 +3380,48 @@
       <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="1"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="35"/>
       <c r="T5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA5" s="16"/>
+    </row>
+    <row r="6" spans="1:27" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3288,38 +3432,46 @@
       <c r="C6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7" t="s">
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="1"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="35">
+        <v>45554</v>
+      </c>
       <c r="T6" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+    </row>
+    <row r="7" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3330,38 +3482,44 @@
       <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7" t="s">
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="1"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="35"/>
       <c r="T7" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+    </row>
+    <row r="8" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3372,38 +3530,44 @@
       <c r="C8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7" t="s">
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="1"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="35"/>
       <c r="T8" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+    </row>
+    <row r="9" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3414,38 +3578,44 @@
       <c r="C9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7" t="s">
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="1"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="35"/>
       <c r="T9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+    </row>
+    <row r="10" spans="1:27" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3456,38 +3626,44 @@
       <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7" t="s">
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="1"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="35"/>
       <c r="T10" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+    </row>
+    <row r="11" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3498,38 +3674,44 @@
       <c r="C11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7" t="s">
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="1"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="35"/>
       <c r="T11" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+    </row>
+    <row r="12" spans="1:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3540,38 +3722,44 @@
       <c r="C12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7" t="s">
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="1"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="35"/>
       <c r="T12" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+    </row>
+    <row r="13" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3582,38 +3770,44 @@
       <c r="C13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7" t="s">
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="1"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="35"/>
       <c r="T13" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+    </row>
+    <row r="14" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3624,38 +3818,44 @@
       <c r="C14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7" t="s">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7" t="s">
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="1"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="35"/>
       <c r="T14" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+    </row>
+    <row r="15" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3666,38 +3866,44 @@
       <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7" t="s">
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="1"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="35"/>
       <c r="T15" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+    </row>
+    <row r="16" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3708,38 +3914,44 @@
       <c r="C16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7" t="s">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7" t="s">
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="1"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="35"/>
       <c r="T16" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+    </row>
+    <row r="17" spans="1:27" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3750,38 +3962,44 @@
       <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7" t="s">
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="1"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="35"/>
       <c r="T17" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+    </row>
+    <row r="18" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3792,38 +4010,44 @@
       <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7" t="s">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7" t="s">
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="1"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="35"/>
       <c r="T18" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+    </row>
+    <row r="19" spans="1:27" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3834,38 +4058,44 @@
       <c r="C19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7" t="s">
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7" t="s">
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="1"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="35"/>
       <c r="T19" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+    </row>
+    <row r="20" spans="1:27" ht="87.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3876,38 +4106,44 @@
       <c r="C20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7" t="s">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7" t="s">
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="1"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="35"/>
       <c r="T20" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" ht="81" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+    </row>
+    <row r="21" spans="1:27" ht="81" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3918,38 +4154,44 @@
       <c r="C21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7" t="s">
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="1"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="35"/>
       <c r="T21" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+    </row>
+    <row r="22" spans="1:27" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3960,38 +4202,44 @@
       <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7" t="s">
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7" t="s">
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="1"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="35"/>
       <c r="T22" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" ht="85.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+    </row>
+    <row r="23" spans="1:27" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4002,38 +4250,44 @@
       <c r="C23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7" t="s">
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7" t="s">
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="1"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="35"/>
       <c r="T23" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" ht="105.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+    </row>
+    <row r="24" spans="1:27" ht="105.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4044,38 +4298,44 @@
       <c r="C24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7" t="s">
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7" t="s">
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="1"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="35"/>
       <c r="T24" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" ht="105" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+    </row>
+    <row r="25" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4086,38 +4346,44 @@
       <c r="C25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7" t="s">
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7" t="s">
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="1"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="35"/>
       <c r="T25" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" ht="108" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+    </row>
+    <row r="26" spans="1:27" ht="108" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4128,38 +4394,44 @@
       <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7" t="s">
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7" t="s">
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="1"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="35"/>
       <c r="T26" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" ht="122.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+    </row>
+    <row r="27" spans="1:27" ht="122.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4170,38 +4442,44 @@
       <c r="C27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7" t="s">
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="1"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="35"/>
       <c r="T27" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+    </row>
+    <row r="28" spans="1:27" ht="123.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4212,36 +4490,42 @@
       <c r="C28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7" t="s">
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="1"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="35"/>
       <c r="T28" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" ht="140.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+    </row>
+    <row r="29" spans="1:27" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4252,38 +4536,44 @@
       <c r="C29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="s">
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7" t="s">
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7" t="s">
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="1"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="35"/>
       <c r="T29" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+    </row>
+    <row r="30" spans="1:27" ht="61.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4294,38 +4584,44 @@
       <c r="C30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7" t="s">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7" t="s">
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="1"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="35"/>
       <c r="T30" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+    </row>
+    <row r="31" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4336,38 +4632,44 @@
       <c r="C31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7" t="s">
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7" t="s">
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="1"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="35"/>
       <c r="T31" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" ht="64.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+    </row>
+    <row r="32" spans="1:27" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4378,38 +4680,44 @@
       <c r="C32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7" t="s">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7" t="s">
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="1"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="35"/>
       <c r="T32" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:21" ht="94.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+    </row>
+    <row r="33" spans="1:27" ht="94.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4420,38 +4728,44 @@
       <c r="C33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="s">
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7" t="s">
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7" t="s">
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="1"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="35"/>
       <c r="T33" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="1:21" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+    </row>
+    <row r="34" spans="1:27" ht="92.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4462,38 +4776,44 @@
       <c r="C34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7" t="s">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7" t="s">
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="1"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="35"/>
       <c r="T34" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:21" ht="109.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+    </row>
+    <row r="35" spans="1:27" ht="109.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4504,38 +4824,44 @@
       <c r="C35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="s">
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7" t="s">
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7" t="s">
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="1"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="35"/>
       <c r="T35" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:21" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+    </row>
+    <row r="36" spans="1:27" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4546,38 +4872,44 @@
       <c r="C36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="s">
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7" t="s">
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7" t="s">
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="1"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="35"/>
       <c r="T36" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+    </row>
+    <row r="37" spans="1:27" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4588,38 +4920,44 @@
       <c r="C37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="s">
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7" t="s">
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7" t="s">
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="1"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="35"/>
       <c r="T37" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+    </row>
+    <row r="38" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4630,38 +4968,44 @@
       <c r="C38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7" t="s">
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7" t="s">
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="1"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="35"/>
       <c r="T38" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="1:21" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+    </row>
+    <row r="39" spans="1:27" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4672,38 +5016,44 @@
       <c r="C39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7" t="s">
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7" t="s">
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="1"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="35"/>
       <c r="T39" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:21" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+    </row>
+    <row r="40" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4714,38 +5064,44 @@
       <c r="C40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7" t="s">
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="s">
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7" t="s">
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="1"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="35"/>
       <c r="T40" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:21" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+    </row>
+    <row r="41" spans="1:27" ht="139.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4756,38 +5112,44 @@
       <c r="C41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7" t="s">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7" t="s">
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7" t="s">
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="1"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="35"/>
       <c r="T41" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:21" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+    </row>
+    <row r="42" spans="1:27" ht="139.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4798,38 +5160,44 @@
       <c r="C42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7" t="s">
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7" t="s">
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7" t="s">
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="1"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="35"/>
       <c r="T42" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:21" ht="105.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+    </row>
+    <row r="43" spans="1:27" ht="105.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4840,38 +5208,44 @@
       <c r="C43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7" t="s">
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7" t="s">
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7" t="s">
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="1"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="35"/>
       <c r="T43" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+    </row>
+    <row r="44" spans="1:27" ht="151.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4882,38 +5256,44 @@
       <c r="C44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7" t="s">
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7" t="s">
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7" t="s">
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7" t="s">
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="1"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="35"/>
       <c r="T44" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" ht="124.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+    </row>
+    <row r="45" spans="1:27" ht="124.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4924,38 +5304,44 @@
       <c r="C45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7" t="s">
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7" t="s">
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7" t="s">
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7" t="s">
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="1"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="35"/>
       <c r="T45" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" ht="168" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+    </row>
+    <row r="46" spans="1:27" ht="168" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4966,38 +5352,44 @@
       <c r="C46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7" t="s">
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7" t="s">
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7" t="s">
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7" t="s">
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="1"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="35"/>
       <c r="T46" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+    </row>
+    <row r="47" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5008,639 +5400,1112 @@
       <c r="C47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7" t="s">
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7" t="s">
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7" t="s">
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7" t="s">
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="1"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="35"/>
       <c r="T47" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="1"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="35"/>
       <c r="T48" s="3"/>
       <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="1"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="35"/>
       <c r="T49" s="3"/>
       <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="1"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="35"/>
       <c r="T50" s="3"/>
       <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="1"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="35"/>
       <c r="T51" s="3"/>
       <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="1"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="35"/>
       <c r="T52" s="3"/>
       <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="1"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="35"/>
       <c r="T53" s="3"/>
       <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="1"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="35"/>
       <c r="T54" s="3"/>
       <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="1"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="35"/>
       <c r="T55" s="3"/>
       <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="1"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="35"/>
       <c r="T56" s="3"/>
       <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="1"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="35"/>
       <c r="T57" s="3"/>
       <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="1"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="35"/>
       <c r="T58" s="3"/>
       <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="1"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="35"/>
       <c r="T59" s="3"/>
       <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="1"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="35"/>
       <c r="T60" s="3"/>
       <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="1"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="35"/>
       <c r="T61" s="3"/>
       <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="1"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="35"/>
       <c r="T62" s="3"/>
       <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="1"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="35"/>
       <c r="T63" s="3"/>
       <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="1"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="35"/>
       <c r="T64" s="3"/>
       <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="1"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="35"/>
       <c r="T65" s="3"/>
       <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="1"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="35"/>
       <c r="T66" s="3"/>
       <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="1"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="35"/>
       <c r="T67" s="3"/>
       <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="1"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="35"/>
       <c r="T68" s="3"/>
       <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="1"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="35"/>
       <c r="T69" s="3"/>
       <c r="U69" s="1"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="353">
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="420">
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="Z69:AA69"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="P66:R66"/>
     <mergeCell ref="D69:F69"/>
     <mergeCell ref="G69:I69"/>
     <mergeCell ref="J69:L69"/>
@@ -5665,316 +6530,48 @@
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:L68"/>
     <mergeCell ref="M68:O68"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="P4:R4"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:R39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A4:U79">
+  <conditionalFormatting sqref="A70:AA79 A4:Y69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$U4="N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4:U19" xr:uid="{0581FA59-0AD6-4F48-BB77-58E6655A1ADB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y69 U4:U19" xr:uid="{0581FA59-0AD6-4F48-BB77-58E6655A1ADB}">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C47" xr:uid="{9FF597CC-2C27-4327-A908-948C609BEF51}">
@@ -5995,1225 +6592,1225 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.796875" customWidth="1"/>
-    <col min="2" max="2" width="34.69921875" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.09765625" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="17">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="17">
+      <c r="B2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="17">
+      <c r="B3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="17">
+      <c r="C4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="17">
+      <c r="E5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="17">
+      <c r="F6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="17">
+      <c r="G7" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="17">
+      <c r="D8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="6">
         <v>20000101</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="17">
+      <c r="E9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="6">
         <v>20030303</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="17">
+      <c r="F10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="D11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="6">
         <v>20770728</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="17">
+      <c r="G11" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="17">
+      <c r="D12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="17">
+      <c r="D13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="17">
+      <c r="D14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="6">
         <v>20230701</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="17">
+      <c r="E15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="6">
         <v>20230701</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="17">
+      <c r="F16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="D17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="6">
         <v>20230710</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="17">
+      <c r="G17" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="17">
+      <c r="D18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="6">
         <v>20230701</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="17">
+      <c r="E19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="6">
         <v>20230701</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="17">
+      <c r="F20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="D21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="6">
         <v>20230710</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="17">
+      <c r="G21" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="6">
         <v>20230701</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="17">
+      <c r="E22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="6">
         <v>20230701</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="17">
+      <c r="F23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="16">
+      <c r="D24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="6">
         <v>20230710</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="17">
+      <c r="G24" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="6">
         <v>20230701</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="6">
         <v>20230701</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="17">
+      <c r="F25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="6">
         <v>20230701</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="E26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="6">
         <v>20230710</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="17">
+      <c r="G26" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="6">
         <v>20230701</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="6">
         <v>20230701</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="6">
         <v>20230710</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="17">
+      <c r="G27" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="6">
         <v>20230701</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="17">
+      <c r="E28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="D29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="6">
         <v>20230701</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="17">
+      <c r="F29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="16">
+      <c r="D30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="6">
         <v>20230710</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="17">
+      <c r="G30" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="6">
         <v>20230701</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="6">
         <v>20230701</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="17">
+      <c r="F31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="6">
         <v>20230701</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="16">
+      <c r="E32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="6">
         <v>20230710</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="17">
+      <c r="G32" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="6">
         <v>20230701</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="6">
         <v>20230701</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="6">
         <v>20230710</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="17">
+      <c r="G33" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="6">
         <v>20230701</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="6">
         <v>20230701</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="17">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="6">
         <v>20230701</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="6">
         <v>20230710</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="17">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="6">
         <v>20230701</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="6">
         <v>20230701</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="6">
         <v>20230710</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="17">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="17">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="6">
         <v>20240906</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="6">
         <v>20240909</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="6">
         <v>20240923</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="17">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="17">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="17">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="17">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="17">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="17">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="17">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="18"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="17">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="17">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="18"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="17">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="17">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="17">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="17">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="17">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="17">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="18"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="17">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="18"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="17">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="17">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="17">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="18"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="17">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="17">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="18"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="17">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="17">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="19">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62" s="9">
         <v>61</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="21"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/設計書/単体テスト仕様書/単体テスト仕様書.xlsx
+++ b/設計書/単体テスト仕様書/単体テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024Javakensyu\oshirase\設計書\単体テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C49C4-2EED-4D5A-AD8B-151FF39CEF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988D5275-38B5-40E8-9386-083E630EB75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{888B3B3F-0B2E-4D62-B45D-44CAE6DCACCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{888B3B3F-0B2E-4D62-B45D-44CAE6DCACCB}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="144">
   <si>
     <t>単体テスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -467,14 +467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・エラーメッセージ「EXXX2」が表示されること
-・検索結果内容エリアが更新されていないこと</t>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索ボタン押下処理
 ・桁数が超えた場合</t>
     <rPh sb="0" eb="2">
@@ -589,69 +581,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲載日_日時に下記の値を入力する
-・「20000101」を入力</t>
-    <rPh sb="0" eb="3">
-      <t>ケイサイビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>適用期間1_日時に下記の値を入力する
-・「20030303」を入力</t>
-    <rPh sb="0" eb="4">
-      <t>テキヨウキカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>適用期間2_日時に下記の値を入力する
-・「20770728」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お知らせタイトル_テキストボックスに下記の値を入力する
 ・「7/10システムメンテナンスのお知らせ」を入力</t>
     <rPh sb="1" eb="2">
@@ -710,32 +639,6 @@
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="29" eb="31">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>適用期間1_日時に下記の値を入力する
-・「20230701」を入力</t>
-    <rPh sb="0" eb="2">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -817,48 +720,6 @@
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="58" eb="60">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お知らせタイトル_テキストボックス、掲載日_日時に下記の値を入力する
-・「システムメンテナンス」を入力
-・「20230701」を入力</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お知らせタイトル_テキストボックス、適用期間1_日時に下記の値を入力する
-・「システムメンテナンス」を入力
-・「20230701」を入力</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1218,27 +1079,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録ボタンを押下</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・エラーメッセージが表示されていないこと
-・お知らせ登録・変更画面へ遷移されること</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PG1/登録_ボタン</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -1476,54 +1316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・任意条件で内容を検索し、検索結果に表示されたレコードを一行選択し、削除ボタンを押下
-・表示された「削除確認」ダイアログに「はい」を押下
-・表示された「削除確認2」ダイアログに「取り消し」を押下</t>
-    <rPh sb="1" eb="3">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ケンサクケッカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチギョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>条件(「テスト入力値」シート参照)</t>
     <rPh sb="0" eb="2">
       <t>ジョウケン</t>
@@ -1537,51 +1329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・任意条件で内容を検索し、検索結果に表示されたレコードを一行選択し、削除ボタンを押下
-・表示された「削除確認」ダイアログに「はい」を押下
-・表示された「削除確認2」ダイアログに「削除」を押下</t>
-    <rPh sb="1" eb="3">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ケンサクケッカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチギョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロジェクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1715,60 +1462,6 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・エラーメッセージが表示されていないこと
-・ダイアログ「削除確認」にメッセージ「I0103」が表示されること
-・ダイアログ「削除確認2」にメッセージ「IXXX1」が表示されること
-・お知らせ設定画面に戻り、選択したレコードが残っていること</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・エラーメッセージが表示されていないこと
-・ダイアログ「削除確認」にメッセージ「I0103」が表示されること
-・ダイアログ「削除確認2」にメッセージ「IXXX1」が表示されること
-・お知らせ設定画面に戻り、選択したレコードが表示されていないことを確認
-・該当レコードの「削除フラグ」が「1」に設定されたこと</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1787,34 +1480,6 @@
     </rPh>
     <rPh sb="77" eb="78">
       <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・エラーメッセージ「E0404」が表示されること
-・ダイアログが表示されていないこと
-・検索結果エリアにデータが保持されていること(お知らせ設定画面が初期化されていないこと)
-・選択したレコードが残っていることを確認</t>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="44" eb="48">
-      <t>ケンサクケッカ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>ショキカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1929,13 +1594,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システムテストのため、利用禁止</t>
-    <rPh sb="11" eb="15">
-      <t>リヨウキンシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>重要</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1962,7 +1620,369 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お知らせ登録・変更画面にて、下記各項目の値に置き換える
+    <t>・エラーメッセージが表示されていないこと
+・お知らせ登録・変更画面へ遷移されること
+・選択したレコードの内容がお知らせ登録・変更画面に移送されたこと（初期表示）
+・選択したレコードの内容が変更せず表示されていること</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>イソウ</t>
+    </rPh>
+    <rPh sb="75" eb="79">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・任意条件で内容を検索し、検索結果に表示されたレコードを一行選択し、変更ボタンを押下
+・条件通りに各項目の値を置き換える
+・確認ボタンを押下し、お知らせ設定画面に戻る</t>
+    <rPh sb="1" eb="3">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ジョウケンドオ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="76" eb="80">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードが初期表示のため、テスト対象外</t>
+    <rPh sb="5" eb="9">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>レビュー日</t>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー者</t>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・検索結果内容エリアにエラーメッセージ「EXXX2」が表示されること</t>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスのタイプをdate型に制限されたため、数字しか入力できないが、yyyy-MM-dd以外のフォーマットで入力すとるルールチェックを行う。例:yyyyyy-MM-dd</t>
+    <rPh sb="17" eb="18">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用期間1_日時に下記の値を入力する
+・「2077/07/28」を入力</t>
+    <rPh sb="0" eb="4">
+      <t>テキヨウキカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用期間2_日時に下記の値を入力する
+・「2003/03/03」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>適用期間1_日時に下記の値を入力する
+・「2023070</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を入力</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お知らせタイトル_テキストボックス、掲載日_日時に下記の値を入力する
+・「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を入力
+・「20230701」を入力</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>お知らせタイトル_テキストボックス、適用期間1_日時に下記の値を入力する
+・「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>test4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を入力
+・「20230701」を入力</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージが表示されていないこと
+・お知らせ登録・変更画面へ遷移されること
+・エラーぜずお知らせ設定画面に戻ること</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ登録・変更画面にて、下記各項目に入力
 ・お知らせタイトル：0906データ更新テスト
 ・お知らせ区分：重要
 ・掲載日：20240906
@@ -1990,30 +2010,142 @@
     <rPh sb="17" eb="19">
       <t>コウモク</t>
     </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録ボタンを押下
+・表示された画面上の登録ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージが表示されていないこと
+・ダイアログ「削除確認」にメッセージ「I0103」が表示されること
+・お知らせ設定画面に戻り、選択したレコードが表示されていないことを確認
+・該当レコードの「削除フラグ」が「1」に設定されたこと</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録ボタンを押下
+・何も入力せず、表示された画面上の閉じるボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録ボタンを押下
+・条件通りに各項目の値を入力し、表示された画面上の閉じるボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カクコウモク</t>
+    </rPh>
     <rPh sb="20" eb="21">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>サクジョ</t>
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・任意条件で内容を検索し、検索結果に表示されたレコードを一行選択し、変更ボタンを押下
 ・条件通りに各項目の値を置き換える
-・戻るボタンを押下し、お知らせ設定画面に戻る</t>
+・閉じるボタンを押下し、お知らせ設定画面に戻る</t>
     <rPh sb="1" eb="3">
       <t>ニンイ</t>
     </rPh>
@@ -2062,22 +2194,19 @@
     <rPh sb="57" eb="58">
       <t>カ</t>
     </rPh>
-    <rPh sb="62" eb="63">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="69" eb="71">
       <t>オウカ</t>
     </rPh>
-    <rPh sb="73" eb="74">
+    <rPh sb="74" eb="75">
       <t>シ</t>
     </rPh>
-    <rPh sb="76" eb="78">
+    <rPh sb="77" eb="79">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="78" eb="80">
+    <rPh sb="79" eb="81">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="81" eb="82">
+    <rPh sb="82" eb="83">
       <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2085,106 +2214,47 @@
   <si>
     <t>・エラーメッセージが表示されていないこと
 ・お知らせ登録・変更画面へ遷移されること
-・選択したレコードの内容がお知らせ登録・変更画面に移送されたこと（初期表示）
-・選択したレコードの内容が変更せず表示されていること</t>
+・エラーせずお知らせ設定画面に戻ること</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
     <rPh sb="34" eb="36">
       <t>センイ</t>
     </rPh>
-    <rPh sb="43" eb="45">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージが表示されていないこと
+・38で記入した内容がクリアされていること
+・処理完了確認ダイアログが表示されること
+・お知らせ設定画面に戻り、登録したレコードが表示されていること</t>
+    <rPh sb="25" eb="27">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="67" eb="69">
-      <t>イソウ</t>
-    </rPh>
-    <rPh sb="75" eb="79">
-      <t>ショキヒョウジ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
+    <rPh sb="44" eb="48">
+      <t>ショリカンリョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・任意条件で内容を検索し、検索結果に表示されたレコードを一行選択し、変更ボタンを押下
-・条件通りに各項目の値を置き換える
-・確認ボタンを押下し、お知らせ設定画面に戻る</t>
-    <rPh sb="1" eb="3">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ケンサクケッカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="77" eb="79">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
       <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イチギョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ジョウケンドオ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="76" eb="80">
-      <t>セッテイガメン</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・エラーメッセージが表示されていないこと
 ・お知らせ登録・変更画面へ遷移されること
+・処理完了確認ダイアログが表示されること
 ・選択したレコードの内容がお知らせ登録・変更画面に移送されたこと（初期表示）
 ・選択したレコードの内容が正しく変更されたこと</t>
     <rPh sb="10" eb="12">
@@ -2193,63 +2263,222 @@
     <rPh sb="34" eb="36">
       <t>センイ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="64" eb="66">
       <t>センタク</t>
     </rPh>
-    <rPh sb="52" eb="54">
+    <rPh sb="73" eb="75">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="67" eb="69">
+    <rPh sb="88" eb="90">
       <t>イソウ</t>
     </rPh>
-    <rPh sb="75" eb="79">
+    <rPh sb="96" eb="100">
       <t>ショキヒョウジ</t>
     </rPh>
-    <rPh sb="82" eb="84">
+    <rPh sb="103" eb="105">
       <t>センタク</t>
     </rPh>
-    <rPh sb="91" eb="93">
+    <rPh sb="112" eb="114">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="94" eb="95">
+    <rPh sb="115" eb="116">
       <t>タダ</t>
     </rPh>
-    <rPh sb="97" eb="99">
+    <rPh sb="118" eb="120">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レコードが初期表示のため、テスト対象外</t>
-    <rPh sb="5" eb="9">
-      <t>ショキヒョウジ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>レビュー日</t>
-    <rPh sb="4" eb="5">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー者</t>
-    <rPh sb="4" eb="5">
-      <t>シャ</t>
+    <t xml:space="preserve">・任意条件で内容を検索し、検索結果に表示されたレコードを一行選択し、削除ボタンを押下
+・表示された「削除確認」ダイアログに「はい」を押下
+</t>
+    <rPh sb="1" eb="3">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージ「E0404」が表示されること
+・お知らせ登録・変更画面が表示されていないこと
+・検索結果エリアにデータが保持されていること(お知らせ設定画面が初期化されていないこと)</t>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ更新テストのため、このレコードを削除しないでください。</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">お知らせ登録・変更画面にて、39で作成したレコードを下記各項目の値に置き換える
+・お知らせタイトル：0920データ更新テスト
+・お知らせ区分：重要
+・掲載日：20240920
+・適用期間1：20240920
+・適用期間2：20240930
+</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2024/9/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>システムテスト</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲載日_日時に下記の値を入力する
+・「2000/01/01」を入力</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサイビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2259,9 +2488,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy\/m\/d"/>
+    <numFmt numFmtId="176" formatCode="yyyy\/m\/d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2321,6 +2550,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2503,7 +2746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2531,9 +2774,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2552,40 +2792,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
@@ -2606,14 +2816,53 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2830,8 +3079,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{886BA525-DE08-4890-89D7-2047C4C53183}" name="テーブル2" displayName="テーブル2" ref="A1:G62" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:G62" xr:uid="{886BA525-DE08-4890-89D7-2047C4C53183}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{886BA525-DE08-4890-89D7-2047C4C53183}" name="テーブル2" displayName="テーブル2" ref="A1:G63" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:G63" xr:uid="{886BA525-DE08-4890-89D7-2047C4C53183}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{58AE1D63-75CF-43B9-9670-17759F8347AE}" name="テストケースID" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{17EC740A-A4BA-4B86-85D5-6ECC2FF132B6}" name="お知らせタイトル" dataDxfId="6"/>
@@ -3142,123 +3391,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141C2145-55F3-4AAF-9B96-8F539AF0C424}">
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7:AA7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="6" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="18" max="18" width="10.75" customWidth="1"/>
-    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.19921875" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" customWidth="1"/>
+    <col min="18" max="18" width="10.69921875" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.5" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
     <col min="24" max="24" width="11.5" customWidth="1"/>
+    <col min="27" max="27" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="30"/>
-    </row>
-    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="29"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="28"/>
       <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19">
+      <c r="K2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28">
         <v>20240906</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28">
         <v>20240906</v>
       </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="T2" s="29"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3266,58 +3516,58 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="21" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="21" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="23"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
       <c r="S3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y3" s="36" t="s">
+      <c r="V3" s="16"/>
+      <c r="W3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA3" s="27"/>
-    </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z3" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA3" s="35"/>
+    </row>
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f>ROW()-3</f>
         <v>1</v>
@@ -3326,102 +3576,102 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="18" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18" t="s">
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="35">
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="23">
         <v>45554</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-    </row>
-    <row r="5" spans="1:27" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+      <c r="V4" s="23"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+    </row>
+    <row r="5" spans="1:27" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A69" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A70" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="35"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="23"/>
       <c r="T5" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA5" s="16"/>
-    </row>
-    <row r="6" spans="1:27" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="V5" s="23"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" s="27"/>
+    </row>
+    <row r="6" spans="1:27" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3430,48 +3680,50 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="35">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="23">
         <v>45554</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-    </row>
-    <row r="7" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" s="23"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+    </row>
+    <row r="7" spans="1:27" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3480,46 +3732,52 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18" t="s">
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18" t="s">
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="35"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="23">
+        <v>45555</v>
+      </c>
       <c r="T7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-    </row>
-    <row r="8" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V7" s="23"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA7" s="27"/>
+    </row>
+    <row r="8" spans="1:27" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3528,46 +3786,52 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="35"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="23">
+        <v>45555</v>
+      </c>
       <c r="T8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-    </row>
-    <row r="9" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V8" s="23"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA8" s="27"/>
+    </row>
+    <row r="9" spans="1:27" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3576,46 +3840,52 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="35"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="23">
+        <v>45555</v>
+      </c>
       <c r="T9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-    </row>
-    <row r="10" spans="1:27" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" s="23"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA9" s="27"/>
+    </row>
+    <row r="10" spans="1:27" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3624,46 +3894,50 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="35"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="23">
+        <v>45555</v>
+      </c>
       <c r="T10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-    </row>
-    <row r="11" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V10" s="23"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+    </row>
+    <row r="11" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3672,46 +3946,50 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="35"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="23">
+        <v>45555</v>
+      </c>
       <c r="T11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-    </row>
-    <row r="12" spans="1:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V11" s="23"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+    </row>
+    <row r="12" spans="1:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3720,46 +3998,50 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="35"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="23">
+        <v>45555</v>
+      </c>
       <c r="T12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-    </row>
-    <row r="13" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V12" s="23"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+    </row>
+    <row r="13" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3768,46 +4050,50 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18" t="s">
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="35"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="23">
+        <v>45555</v>
+      </c>
       <c r="T13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-    </row>
-    <row r="14" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V13" s="23"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+    </row>
+    <row r="14" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3816,46 +4102,50 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18" t="s">
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="35"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="23">
+        <v>45555</v>
+      </c>
       <c r="T14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-    </row>
-    <row r="15" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V14" s="23"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+    </row>
+    <row r="15" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3864,46 +4154,50 @@
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18" t="s">
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="35"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="23">
+        <v>45555</v>
+      </c>
       <c r="T15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-    </row>
-    <row r="16" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V15" s="23"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+    </row>
+    <row r="16" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3912,46 +4206,50 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="35"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="23">
+        <v>45555</v>
+      </c>
       <c r="T16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-    </row>
-    <row r="17" spans="1:27" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V16" s="23"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+    </row>
+    <row r="17" spans="1:27" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3960,46 +4258,50 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="35"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="23">
+        <v>45555</v>
+      </c>
       <c r="T17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-    </row>
-    <row r="18" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V17" s="23"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+    </row>
+    <row r="18" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4008,46 +4310,50 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="35"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="23">
+        <v>45555</v>
+      </c>
       <c r="T18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-    </row>
-    <row r="19" spans="1:27" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V18" s="23"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+    </row>
+    <row r="19" spans="1:27" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4056,46 +4362,50 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="35"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="23">
+        <v>45555</v>
+      </c>
       <c r="T19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-    </row>
-    <row r="20" spans="1:27" ht="87.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V19" s="23"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+    </row>
+    <row r="20" spans="1:27" ht="87.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4104,46 +4414,50 @@
         <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18" t="s">
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="35"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="23">
+        <v>45555</v>
+      </c>
       <c r="T20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-    </row>
-    <row r="21" spans="1:27" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V20" s="23"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+    </row>
+    <row r="21" spans="1:27" ht="81" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4152,46 +4466,50 @@
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="35"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="23">
+        <v>45555</v>
+      </c>
       <c r="T21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-    </row>
-    <row r="22" spans="1:27" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" s="23"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+    </row>
+    <row r="22" spans="1:27" ht="80.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4200,46 +4518,50 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18" t="s">
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="35"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="23">
+        <v>45555</v>
+      </c>
       <c r="T22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-    </row>
-    <row r="23" spans="1:27" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V22" s="23"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+    </row>
+    <row r="23" spans="1:27" ht="85.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4248,46 +4570,50 @@
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="35"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="23">
+        <v>45555</v>
+      </c>
       <c r="T23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-    </row>
-    <row r="24" spans="1:27" ht="105.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V23" s="23"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+    </row>
+    <row r="24" spans="1:27" ht="105.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4296,46 +4622,50 @@
         <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18" t="s">
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="35"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="23">
+        <v>45555</v>
+      </c>
       <c r="T24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U24" s="1"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-    </row>
-    <row r="25" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="23"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+    </row>
+    <row r="25" spans="1:27" ht="105" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4344,46 +4674,50 @@
         <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="35"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="23">
+        <v>45555</v>
+      </c>
       <c r="T25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-    </row>
-    <row r="26" spans="1:27" ht="108" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V25" s="23"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+    </row>
+    <row r="26" spans="1:27" ht="108" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4392,46 +4726,50 @@
         <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18" t="s">
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="35"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="23">
+        <v>45555</v>
+      </c>
       <c r="T26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-    </row>
-    <row r="27" spans="1:27" ht="122.45" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V26" s="23"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+    </row>
+    <row r="27" spans="1:27" ht="122.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4440,46 +4778,50 @@
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18" t="s">
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="35"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="23">
+        <v>45555</v>
+      </c>
       <c r="T27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-    </row>
-    <row r="28" spans="1:27" ht="123.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V27" s="23"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+    </row>
+    <row r="28" spans="1:27" ht="123.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4488,44 +4830,50 @@
         <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="35"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="23">
+        <v>45555</v>
+      </c>
       <c r="T28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-    </row>
-    <row r="29" spans="1:27" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V28" s="23"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+    </row>
+    <row r="29" spans="1:27" ht="140.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4534,46 +4882,50 @@
         <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18" t="s">
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="35"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="23">
+        <v>45555</v>
+      </c>
       <c r="T29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-    </row>
-    <row r="30" spans="1:27" ht="61.15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V29" s="23"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+    </row>
+    <row r="30" spans="1:27" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4582,46 +4934,50 @@
         <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18" t="s">
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="35"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="23">
+        <v>45555</v>
+      </c>
       <c r="T30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-    </row>
-    <row r="31" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V30" s="23"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+    </row>
+    <row r="31" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4630,46 +4986,50 @@
         <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18" t="s">
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="35"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="23">
+        <v>45555</v>
+      </c>
       <c r="T31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U31" s="1"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-    </row>
-    <row r="32" spans="1:27" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V31" s="23"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+    </row>
+    <row r="32" spans="1:27" ht="64.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4678,46 +5038,50 @@
         <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18" t="s">
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="35"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="23">
+        <v>45555</v>
+      </c>
       <c r="T32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-    </row>
-    <row r="33" spans="1:27" ht="94.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V32" s="23"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+    </row>
+    <row r="33" spans="1:27" ht="94.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4726,46 +5090,50 @@
         <v>15</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18" t="s">
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="35"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="23">
+        <v>45555</v>
+      </c>
       <c r="T33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-    </row>
-    <row r="34" spans="1:27" ht="92.45" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V33" s="23"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+    </row>
+    <row r="34" spans="1:27" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4774,46 +5142,50 @@
         <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18" t="s">
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="35"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="23">
+        <v>45555</v>
+      </c>
       <c r="T34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U34" s="1"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-    </row>
-    <row r="35" spans="1:27" ht="109.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V34" s="23"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+    </row>
+    <row r="35" spans="1:27" ht="109.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4822,46 +5194,50 @@
         <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18" t="s">
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="35"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="23">
+        <v>45555</v>
+      </c>
       <c r="T35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-    </row>
-    <row r="36" spans="1:27" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V35" s="23"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+    </row>
+    <row r="36" spans="1:27" ht="79.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4870,46 +5246,50 @@
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18" t="s">
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="35"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="23">
+        <v>45555</v>
+      </c>
       <c r="T36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-    </row>
-    <row r="37" spans="1:27" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V36" s="23"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+    </row>
+    <row r="37" spans="1:27" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4918,46 +5298,50 @@
         <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18" t="s">
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="35"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="23">
+        <v>45555</v>
+      </c>
       <c r="T37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-    </row>
-    <row r="38" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V37" s="23"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+    </row>
+    <row r="38" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4966,46 +5350,50 @@
         <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18" t="s">
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="35"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="23">
+        <v>45555</v>
+      </c>
       <c r="T38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U38" s="1"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-    </row>
-    <row r="39" spans="1:27" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V38" s="23"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+    </row>
+    <row r="39" spans="1:27" ht="73.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5014,1138 +5402,1231 @@
         <v>15</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18" t="s">
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="35"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="23">
+        <v>45555</v>
+      </c>
       <c r="T39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U39" s="1"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-    </row>
-    <row r="40" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V39" s="23"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+    </row>
+    <row r="40" spans="1:27" ht="95.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18" t="s">
+      <c r="D40" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="35"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="23">
+        <v>45555</v>
+      </c>
       <c r="T40" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U40" s="1"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-    </row>
-    <row r="41" spans="1:27" ht="139.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V40" s="23"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+    </row>
+    <row r="41" spans="1:27" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18" t="s">
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="23">
+        <v>45555</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V41" s="23"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+    </row>
+    <row r="42" spans="1:27" ht="140.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-    </row>
-    <row r="42" spans="1:27" ht="139.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U42" s="1"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-    </row>
-    <row r="43" spans="1:27" ht="105.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="23">
+        <v>45555</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V42" s="23"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+    </row>
+    <row r="43" spans="1:27" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="35"/>
+        <v>125</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="23">
+        <v>45555</v>
+      </c>
       <c r="T43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-    </row>
-    <row r="44" spans="1:27" ht="151.15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V43" s="23"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+    </row>
+    <row r="44" spans="1:27" ht="169.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="23">
+        <v>45555</v>
+      </c>
       <c r="T44" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U44" s="1"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-    </row>
-    <row r="45" spans="1:27" ht="124.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V44" s="23"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+    </row>
+    <row r="45" spans="1:27" ht="105.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="35"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="23">
+        <v>45555</v>
+      </c>
       <c r="T45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U45" s="1"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-    </row>
-    <row r="46" spans="1:27" ht="168" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V45" s="23"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+    </row>
+    <row r="46" spans="1:27" ht="97.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="35"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="23">
+        <v>45555</v>
+      </c>
       <c r="T46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U46" s="1"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-    </row>
-    <row r="47" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V46" s="23"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+    </row>
+    <row r="47" spans="1:27" ht="126" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="35"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="23">
+        <v>45555</v>
+      </c>
       <c r="T47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U47" s="1"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V47" s="23"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+    </row>
+    <row r="48" spans="1:27" ht="110.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="23">
+        <v>45555</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V48" s="23"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="35"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="23"/>
       <c r="T49" s="3"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V49" s="23"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="35"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="23"/>
       <c r="T50" s="3"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V50" s="23"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="35"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="23"/>
       <c r="T51" s="3"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V51" s="23"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="35"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="23"/>
       <c r="T52" s="3"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V52" s="23"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="35"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="23"/>
       <c r="T53" s="3"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V53" s="23"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="35"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="23"/>
       <c r="T54" s="3"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V54" s="23"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="35"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="23"/>
       <c r="T55" s="3"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V55" s="23"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="35"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="23"/>
       <c r="T56" s="3"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V56" s="23"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="35"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="23"/>
       <c r="T57" s="3"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V57" s="23"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="35"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="23"/>
       <c r="T58" s="3"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V58" s="23"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="37"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="35"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="23"/>
       <c r="T59" s="3"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V59" s="23"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="35"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="23"/>
       <c r="T60" s="3"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V60" s="23"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="35"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="23"/>
       <c r="T61" s="3"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V61" s="23"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="37"/>
+      <c r="AA61" s="37"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="35"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="23"/>
       <c r="T62" s="3"/>
       <c r="U62" s="1"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V62" s="23"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="37"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="35"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="23"/>
       <c r="T63" s="3"/>
       <c r="U63" s="1"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V63" s="23"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="37"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="35"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="23"/>
       <c r="T64" s="3"/>
       <c r="U64" s="1"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V64" s="23"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="37"/>
+      <c r="AA64" s="37"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="35"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="23"/>
       <c r="T65" s="3"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V65" s="23"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="37"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="35"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="23"/>
       <c r="T66" s="3"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V66" s="23"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="37"/>
+      <c r="AA66" s="37"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="35"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="23"/>
       <c r="T67" s="3"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V67" s="23"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="37"/>
+      <c r="AA67" s="37"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="35"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="23"/>
       <c r="T68" s="3"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="V68" s="23"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="37"/>
+      <c r="AA68" s="37"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="35"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="23"/>
       <c r="T69" s="3"/>
       <c r="U69" s="1"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="37"/>
+      <c r="AA69" s="37"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="420">
-    <mergeCell ref="Z68:AA68"/>
+  <mergeCells count="425">
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
     <mergeCell ref="Z69:AA69"/>
-    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="Z70:AA70"/>
     <mergeCell ref="Z60:AA60"/>
     <mergeCell ref="Z61:AA61"/>
     <mergeCell ref="Z62:AA62"/>
@@ -6154,7 +6635,7 @@
     <mergeCell ref="Z65:AA65"/>
     <mergeCell ref="Z66:AA66"/>
     <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="Z68:AA68"/>
     <mergeCell ref="Z51:AA51"/>
     <mergeCell ref="Z52:AA52"/>
     <mergeCell ref="Z53:AA53"/>
@@ -6163,8 +6644,7 @@
     <mergeCell ref="Z56:AA56"/>
     <mergeCell ref="Z57:AA57"/>
     <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="Z59:AA59"/>
     <mergeCell ref="Z43:AA43"/>
     <mergeCell ref="Z44:AA44"/>
     <mergeCell ref="Z45:AA45"/>
@@ -6172,6 +6652,7 @@
     <mergeCell ref="Z47:AA47"/>
     <mergeCell ref="Z48:AA48"/>
     <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="Z50:AA50"/>
     <mergeCell ref="Z32:AA32"/>
     <mergeCell ref="Z33:AA33"/>
     <mergeCell ref="Z34:AA34"/>
@@ -6371,11 +6852,11 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:R6"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:L9"/>
@@ -6395,21 +6876,16 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:R46"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="J48:L48"/>
@@ -6495,41 +6971,41 @@
     <mergeCell ref="J64:L64"/>
     <mergeCell ref="M64:O64"/>
     <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P68:R68"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="G65:I65"/>
     <mergeCell ref="J65:L65"/>
     <mergeCell ref="M65:O65"/>
     <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P69:R69"/>
     <mergeCell ref="D66:F66"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="J66:L66"/>
     <mergeCell ref="M66:O66"/>
     <mergeCell ref="P66:R66"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:R46"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="G67:I67"/>
     <mergeCell ref="J67:L67"/>
     <mergeCell ref="M67:O67"/>
     <mergeCell ref="P67:R67"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:R47"/>
     <mergeCell ref="D68:F68"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:L68"/>
     <mergeCell ref="M68:O68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="M69:O69"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
@@ -6539,11 +7015,11 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:R44"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
@@ -6565,16 +7041,16 @@
     <mergeCell ref="P4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A70:AA79 A4:Y69">
+  <conditionalFormatting sqref="A71:AA80 A4:Y70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$U4="N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y69 U4:U19" xr:uid="{0581FA59-0AD6-4F48-BB77-58E6655A1ADB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y70 U4:U70" xr:uid="{0581FA59-0AD6-4F48-BB77-58E6655A1ADB}">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C47" xr:uid="{9FF597CC-2C27-4327-A908-948C609BEF51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C48" xr:uid="{9FF597CC-2C27-4327-A908-948C609BEF51}">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6585,584 +7061,584 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CABD45-CFC8-4099-A887-686049B20EEE}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="34.75" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.09765625" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G1" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D9" s="6">
         <v>20000101</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E10" s="6">
-        <v>20030303</v>
+        <v>20770728</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="6">
-        <v>20770728</v>
+        <v>99</v>
+      </c>
+      <c r="F11" s="8">
+        <v>20030303</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D15" s="6">
         <v>20230701</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E16" s="6">
         <v>20230701</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F17" s="6">
         <v>20230710</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D19" s="6">
         <v>20230701</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E20" s="6">
         <v>20230701</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F21" s="6">
         <v>20230710</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D22" s="6">
         <v>20230701</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E23" s="6">
         <v>20230701</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F24" s="6">
         <v>20230710</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D25" s="6">
         <v>20230701</v>
@@ -7171,44 +7647,44 @@
         <v>20230701</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D26" s="6">
         <v>20230701</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F26" s="6">
         <v>20230710</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D27" s="6">
         <v>20230701</v>
@@ -7220,87 +7696,87 @@
         <v>20230710</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D28" s="6">
         <v>20230701</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E29" s="6">
         <v>20230701</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F30" s="6">
         <v>20230710</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D31" s="6">
         <v>20230701</v>
@@ -7309,44 +7785,44 @@
         <v>20230701</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D32" s="6">
         <v>20230701</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F32" s="6">
         <v>20230710</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D33" s="6">
         <v>20230701</v>
@@ -7358,18 +7834,18 @@
         <v>20230710</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D34" s="6">
         <v>20230701</v>
@@ -7378,44 +7854,44 @@
         <v>20230701</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D35" s="6">
         <v>20230701</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F35" s="6">
         <v>20230710</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D36" s="6">
         <v>20230701</v>
@@ -7427,216 +7903,240 @@
         <v>20230710</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="E37" s="6">
+        <v>20230701</v>
+      </c>
+      <c r="F37" s="6">
+        <v>20230710</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>122</v>
+      <c r="B38" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="6">
-        <v>20240906</v>
-      </c>
-      <c r="E38" s="6">
-        <v>20240909</v>
-      </c>
-      <c r="F38" s="6">
-        <v>20240923</v>
+        <v>98</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>112</v>
+      <c r="B39" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="D39" s="6">
+        <v>20240906</v>
+      </c>
+      <c r="E39" s="6">
+        <v>20240910</v>
+      </c>
+      <c r="F39" s="6">
+        <v>20240920</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>112</v>
+      <c r="B40" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="D40" s="6">
+        <v>20240906</v>
+      </c>
+      <c r="E40" s="6">
+        <v>20240910</v>
+      </c>
+      <c r="F40" s="6">
+        <v>20240920</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>112</v>
+      <c r="B41" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="D41" s="6">
+        <v>20240920</v>
+      </c>
+      <c r="E41" s="6">
+        <v>20240920</v>
+      </c>
+      <c r="F41" s="6">
+        <v>20240930</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>112</v>
+      <c r="B42" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="D42" s="6">
+        <v>20240920</v>
+      </c>
+      <c r="E42" s="6">
+        <v>20240920</v>
+      </c>
+      <c r="F42" s="6">
+        <v>20240930</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -7647,7 +8147,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -7658,7 +8158,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -7669,7 +8169,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -7680,7 +8180,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -7691,7 +8191,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -7702,7 +8202,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -7713,7 +8213,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -7724,7 +8224,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -7735,7 +8235,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -7746,7 +8246,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -7757,7 +8257,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -7768,7 +8268,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -7779,7 +8279,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -7790,7 +8290,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -7801,21 +8301,32 @@
       <c r="F61" s="6"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="9">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="11"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C62" xr:uid="{E8F861EB-1624-4022-A75A-DD40D454F9FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C63" xr:uid="{E8F861EB-1624-4022-A75A-DD40D454F9FF}">
       <formula1>"N/A,重要,情報"</formula1>
     </dataValidation>
   </dataValidations>
